--- a/card_data/B/Dauphiné.xlsx
+++ b/card_data/B/Dauphiné.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\dhmit\french-playing-cards\card_data\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F3347-E711-6646-BC72-00AF6A32459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D79268-73C8-4501-A80E-B2FFF0E05568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="500" windowWidth="21660" windowHeight="16340" xr2:uid="{CE2FDC2A-7548-B946-A288-0CC89512212C}"/>
+    <workbookView xWindow="12270" yWindow="3990" windowWidth="18310" windowHeight="15390" xr2:uid="{CE2FDC2A-7548-B946-A288-0CC89512212C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
   <si>
     <t>Card</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Cartes de tête issues de jeux au portrait du Dauphiné</t>
+  </si>
+  <si>
+    <t>Dauphiné.KC.1</t>
   </si>
 </sst>
 </file>
@@ -554,19 +557,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12460001-25AC-2F48-B939-A0BEC1246E5F}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -639,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -674,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -709,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -744,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -779,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -814,18 +817,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -849,12 +852,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -884,18 +887,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -919,12 +922,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -954,18 +957,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -989,12 +992,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1024,18 +1027,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1059,12 +1062,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1094,47 +1097,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>1746</v>
+      </c>
+      <c r="G16">
+        <v>1777</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16">
-        <v>1746</v>
-      </c>
-      <c r="G16">
-        <v>1777</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1164,18 +1167,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1199,12 +1202,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1234,18 +1237,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -1269,12 +1272,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1304,18 +1307,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -1339,12 +1342,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1374,8 +1377,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L24" s="2"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>1746</v>
+      </c>
+      <c r="G24">
+        <v>1777</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
